--- a/plots/countries/plot data/Austria.xlsx
+++ b/plots/countries/plot data/Austria.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>8.41628949606164</v>
+        <v>8.58070483220175</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>14.3256280203217</v>
+        <v>14.3255889442164</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>0.773982082676484</v>
+        <v>0.942229366980839</v>
       </c>
     </row>
     <row r="5">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>13.9494106367548</v>
+        <v>13.9501008596957</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>13.6333363620646</v>
+        <v>13.6412156900995</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-11.6818038165482</v>
+        <v>-13.7560407914683</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>4.36718417273909</v>
+        <v>4.56455444219725</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>8.32697771913383</v>
+        <v>8.49786233125296</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>15.513819445911</v>
+        <v>15.5137819302296</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>0.624281577143454</v>
+        <v>0.792564568338844</v>
       </c>
     </row>
     <row r="14">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>15.4271182278707</v>
+        <v>15.4279147426456</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>13.6991415050011</v>
+        <v>13.707167761388</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-18.6897091678096</v>
+        <v>-19.0695641036497</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>4.44476290743935</v>
+        <v>4.64380944800889</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>7.98434572950333</v>
+        <v>8.15395621385118</v>
       </c>
     </row>
     <row r="21">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>14.9205935711378</v>
+        <v>14.9205572586825</v>
       </c>
     </row>
     <row r="22">
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>0.671261220212944</v>
+        <v>0.838755853679074</v>
       </c>
     </row>
     <row r="23">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>15.3935843027397</v>
+        <v>15.3943849112423</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>12.0605610552773</v>
+        <v>12.0690675228522</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-9.02534938369581</v>
+        <v>-13.4871501231778</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>4.39139664087043</v>
+        <v>4.59189388834295</v>
       </c>
     </row>
     <row r="29">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>8.08813390548664</v>
+        <v>8.26174464456056</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>14.8471512756935</v>
+        <v>14.8471153985542</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>0.636834867527066</v>
+        <v>0.803075022372939</v>
       </c>
     </row>
     <row r="32">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>15.5210730120895</v>
+        <v>15.5218929975728</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>12.0142527190807</v>
+        <v>12.0161292817272</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-16.5789047516061</v>
+        <v>-15.6401247020077</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>4.36118765737</v>
+        <v>4.56258684151491</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>8.05029327909448</v>
+        <v>8.22713718607657</v>
       </c>
     </row>
     <row r="39">
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>13.5183045854764</v>
+        <v>13.518268881091</v>
       </c>
     </row>
     <row r="40">
@@ -1265,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>0.511683233942709</v>
+        <v>0.680325040100867</v>
       </c>
     </row>
     <row r="41">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>15.5651540833425</v>
+        <v>15.5660012736197</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>12.8449422483208</v>
+        <v>12.842381906536</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-9.21087485013908</v>
+        <v>-13.0822615288598</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>4.24905492944718</v>
+        <v>4.45094243274851</v>
       </c>
     </row>
     <row r="47">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>8.14497731301055</v>
+        <v>8.35331091221959</v>
       </c>
     </row>
     <row r="48">
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>14.6873473037412</v>
+        <v>14.6873115530753</v>
       </c>
     </row>
     <row r="49">
@@ -1445,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="n">
-        <v>0.504681688044143</v>
+        <v>0.671473543313204</v>
       </c>
     </row>
     <row r="50">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>15.84498673992</v>
+        <v>15.8458363406408</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>13.6249415472822</v>
+        <v>13.6313685416237</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-19.3339077803185</v>
+        <v>-18.396675661691</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>4.05470019501254</v>
+        <v>4.25670163095988</v>
       </c>
     </row>
     <row r="56">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>8.00913663654137</v>
+        <v>8.24543015169544</v>
       </c>
     </row>
     <row r="57">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>15.6817272457687</v>
+        <v>15.6816917188805</v>
       </c>
     </row>
     <row r="58">
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>0.430329757676457</v>
+        <v>0.597171664925638</v>
       </c>
     </row>
     <row r="59">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>17.3981229373705</v>
+        <v>17.3989096311403</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>13.1156230634252</v>
+        <v>13.1233561151663</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-18.4420442199529</v>
+        <v>-14.9398439744727</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>3.84192850907337</v>
+        <v>4.04145617827171</v>
       </c>
     </row>
     <row r="65">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>7.95028064587666</v>
+        <v>8.21511469171361</v>
       </c>
     </row>
     <row r="66">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>14.2410934005994</v>
+        <v>14.2410608614109</v>
       </c>
     </row>
     <row r="67">
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>0.474398539346162</v>
+        <v>0.641284432554897</v>
       </c>
     </row>
     <row r="68">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>16.4092102643021</v>
+        <v>16.4099809796037</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>14.0925965553592</v>
+        <v>14.0943658136873</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-22.2877488460378</v>
+        <v>-22.312668837807</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>3.67570493475991</v>
+        <v>3.86924751031563</v>
       </c>
     </row>
     <row r="74">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>7.92545434091195</v>
+        <v>8.22621569887862</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>14.2672428438227</v>
+        <v>14.2672125714509</v>
       </c>
     </row>
     <row r="76">
@@ -1985,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="F76" t="n">
-        <v>0.502454189031472</v>
+        <v>0.669363077047064</v>
       </c>
     </row>
     <row r="77">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>18.5150132119549</v>
+        <v>18.5157912949894</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>13.6931163177335</v>
+        <v>13.6935960812048</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-18.8859493479125</v>
+        <v>-20.6302530022888</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>3.54005153769385</v>
+        <v>3.72768581957483</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>7.80091860576609</v>
+        <v>8.13130326750374</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>14.8954502557009</v>
+        <v>14.8954269176945</v>
       </c>
     </row>
     <row r="85">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="n">
-        <v>0.535666877253801</v>
+        <v>0.704946717486031</v>
       </c>
     </row>
     <row r="86">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>9.76537370128225</v>
+        <v>9.76538014208305</v>
       </c>
     </row>
     <row r="87">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>17.9792338570287</v>
+        <v>17.9799550897233</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>13.4723244877514</v>
+        <v>13.4798417662983</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-20.1288761364685</v>
+        <v>-21.9681403922733</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>3.40463346181753</v>
+        <v>3.59031513020134</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>7.65707488437255</v>
+        <v>8.01270632690422</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>13.6243276365456</v>
+        <v>13.6239530400769</v>
       </c>
     </row>
     <row r="94">
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>0.53651419926743</v>
+        <v>0.705362800084094</v>
       </c>
     </row>
     <row r="95">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>18.791248371222</v>
+        <v>18.7919287514719</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>14.416520954038</v>
+        <v>14.4539154075369</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-13.9576757680297</v>
+        <v>-18.0600066134823</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>3.27695649989053</v>
+        <v>3.46312406146807</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>7.5749379561031</v>
+        <v>7.93573665389885</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>14.8603742146147</v>
+        <v>14.858727436047</v>
       </c>
     </row>
     <row r="103">
@@ -2525,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="F103" t="n">
-        <v>0.554639798104646</v>
+        <v>0.725782654677768</v>
       </c>
     </row>
     <row r="104">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>20.2849298132075</v>
+        <v>20.2856042546659</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>14.3365153486407</v>
+        <v>14.376891234602</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-29.1018508311255</v>
+        <v>-24.4233474531774</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>3.15737819769227</v>
+        <v>3.34022706951894</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>7.45269064745463</v>
+        <v>7.82420350659747</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>14.0848341956898</v>
+        <v>14.0819650418918</v>
       </c>
     </row>
     <row r="112">
@@ -2705,7 +2705,7 @@
         <v>17</v>
       </c>
       <c r="F112" t="n">
-        <v>0.538879220444919</v>
+        <v>0.711272502239497</v>
       </c>
     </row>
     <row r="113">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>10.4295605207887</v>
+        <v>10.4296603535319</v>
       </c>
     </row>
     <row r="114">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>22.1987170585488</v>
+        <v>22.1994102395389</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>15.0600607505072</v>
+        <v>15.0848082737122</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-12.8619064565971</v>
+        <v>-15.8842862019225</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>3.14478566453783</v>
+        <v>3.34204758108614</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>7.29829025095579</v>
+        <v>7.68415187751038</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>14.7554508804788</v>
+        <v>14.7513991073758</v>
       </c>
     </row>
     <row r="121">
@@ -2885,7 +2885,7 @@
         <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>0.555406330496127</v>
+        <v>0.729354839107984</v>
       </c>
     </row>
     <row r="122">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>24.0550716263981</v>
+        <v>24.0557295223337</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>15.0806954669087</v>
+        <v>15.0974784665637</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-14.9833144434555</v>
+        <v>-10.9602591634979</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>3.13896924274528</v>
+        <v>3.33285224917475</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>7.26437341480757</v>
+        <v>7.64699973459705</v>
       </c>
     </row>
     <row r="129">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>14.2339636859399</v>
+        <v>14.2287652900252</v>
       </c>
     </row>
     <row r="130">
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="F130" t="n">
-        <v>0.502107062615632</v>
+        <v>0.679018398124825</v>
       </c>
     </row>
     <row r="131">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>24.5736353537147</v>
+        <v>24.5743807194527</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>14.751284901654</v>
+        <v>14.7745268070846</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-22.106466478173</v>
+        <v>-15.8119903842637</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>3.1984673666833</v>
+        <v>3.39165416417157</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>7.19625400394003</v>
+        <v>7.57806190722757</v>
       </c>
     </row>
     <row r="138">
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>13.9279195112486</v>
+        <v>13.9215772398004</v>
       </c>
     </row>
     <row r="139">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>0.470619471789321</v>
+        <v>0.649860378689524</v>
       </c>
     </row>
     <row r="140">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>11.3613883328971</v>
+        <v>11.3627611886218</v>
       </c>
     </row>
     <row r="141">
@@ -3285,7 +3285,7 @@
         <v>17</v>
       </c>
       <c r="F141" t="n">
-        <v>16.0260926317409</v>
+        <v>16.0247197760162</v>
       </c>
     </row>
     <row r="142">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>24.9284296425672</v>
+        <v>24.9296425511425</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>15.6534405576203</v>
+        <v>15.6514213867806</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-18.0986011727318</v>
+        <v>-15.2276943685736</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>3.04092413425291</v>
+        <v>3.22267253740659</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>7.18538556571039</v>
+        <v>7.56706401714877</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>13.7454225240149</v>
+        <v>13.7379419481405</v>
       </c>
     </row>
     <row r="148">
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>0.499863195785997</v>
+        <v>0.682027280947868</v>
       </c>
     </row>
     <row r="149">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>23.6628026380339</v>
+        <v>23.663755599097</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>16.180820873283</v>
+        <v>16.1635125197521</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-8.75240862112439</v>
+        <v>-8.48166858294576</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>2.90578379807338</v>
+        <v>3.07261646003247</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>7.24981992915012</v>
+        <v>7.56726682032983</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>11.7254874597043</v>
+        <v>11.7153508123278</v>
       </c>
     </row>
     <row r="157">
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>0.506315751884506</v>
+        <v>0.691002253500076</v>
       </c>
     </row>
     <row r="158">
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>10.7478574906138</v>
+        <v>10.7534620623199</v>
       </c>
     </row>
     <row r="159">
@@ -3645,7 +3645,7 @@
         <v>17</v>
       </c>
       <c r="F159" t="n">
-        <v>13.621827219817</v>
+        <v>13.6162226481109</v>
       </c>
     </row>
     <row r="160">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>23.8867902815275</v>
+        <v>23.887808359623</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>16.9297138206332</v>
+        <v>16.9365319791624</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-5.35968237711644</v>
+        <v>-8.00659417593039</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>2.7621252873826</v>
+        <v>2.92940878154414</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>7.36641411933379</v>
+        <v>7.67277647571647</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>12.1080332393714</v>
+        <v>12.0953632044502</v>
       </c>
     </row>
     <row r="166">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>0.465063733264974</v>
+        <v>0.652831859662074</v>
       </c>
     </row>
     <row r="167">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>22.4160319092776</v>
+        <v>22.4182533484405</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>17.3073657828903</v>
+        <v>17.3245969324328</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-12.0559533093331</v>
+        <v>-9.79628465286476</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>2.6359877879745</v>
+        <v>2.80371479135335</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>7.41090647113018</v>
+        <v>7.71265982375365</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>11.111459227729</v>
+        <v>11.0983562798755</v>
       </c>
     </row>
     <row r="175">
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="F175" t="n">
-        <v>0.513456777810299</v>
+        <v>0.703875257329232</v>
       </c>
     </row>
     <row r="176">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>21.7592118657676</v>
+        <v>21.7612981950395</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>13.9733126373913</v>
+        <v>14.0011135911121</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-7.73856157858785</v>
+        <v>-9.50521774109959</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>2.44931022875731</v>
+        <v>2.61375458289642</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>7.28707154884445</v>
+        <v>7.57405904512975</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>11.2739281331264</v>
+        <v>11.2605003703635</v>
       </c>
     </row>
     <row r="184">
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="F184" t="n">
-        <v>0.502162750414163</v>
+        <v>0.687417637457803</v>
       </c>
     </row>
     <row r="185">
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="F185" t="n">
-        <v>11.1884666444278</v>
+        <v>11.1888849931758</v>
       </c>
     </row>
     <row r="186">
@@ -4185,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="F186" t="n">
-        <v>13.7471259889947</v>
+        <v>13.7467076402467</v>
       </c>
     </row>
     <row r="187">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>22.5670471999433</v>
+        <v>22.5690688538589</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>15.9383564510163</v>
+        <v>15.9651167545721</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-19.4393120575131</v>
+        <v>-11.733727119036</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>2.28900963235012</v>
+        <v>2.45015973785734</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>7.36314788494379</v>
+        <v>7.64502419411089</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>10.0521413806989</v>
+        <v>10.0384957984463</v>
       </c>
     </row>
     <row r="193">
@@ -4325,7 +4325,7 @@
         <v>17</v>
       </c>
       <c r="F193" t="n">
-        <v>0.495076903216106</v>
+        <v>0.677749894464373</v>
       </c>
     </row>
     <row r="194">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>11.0978067809072</v>
+        <v>11.1525630000614</v>
       </c>
     </row>
     <row r="195">
@@ -4365,7 +4365,7 @@
         <v>17</v>
       </c>
       <c r="F195" t="n">
-        <v>13.4086177165088</v>
+        <v>13.3538614973546</v>
       </c>
     </row>
     <row r="196">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>21.9165596268424</v>
+        <v>21.9185706859921</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>16.1302353057109</v>
+        <v>16.1609527822063</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-15.0350580425774</v>
+        <v>-11.0271147456803</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>2.14313539933612</v>
+        <v>2.30332939401997</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>7.31177868822043</v>
+        <v>7.58391142385682</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>9.61879971761438</v>
+        <v>9.57702576852401</v>
       </c>
     </row>
     <row r="202">
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="F202" t="n">
-        <v>0.509612925616202</v>
+        <v>0.689155543691716</v>
       </c>
     </row>
     <row r="203">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>10.9927114191111</v>
+        <v>11.0213396973078</v>
       </c>
     </row>
     <row r="204">
@@ -4545,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="F204" t="n">
-        <v>11.9750740711716</v>
+        <v>11.9743946426376</v>
       </c>
     </row>
     <row r="205">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>21.7325596028104</v>
+        <v>21.7346776726165</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>15.7319917283229</v>
+        <v>15.7308722828852</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-5.44325512769989</v>
+        <v>-9.15622595051234</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>2.01648064799894</v>
+        <v>2.17573436391399</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>7.3109860907539</v>
+        <v>7.56987707665511</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>9.84820876377268</v>
+        <v>9.83440713742078</v>
       </c>
     </row>
     <row r="211">
@@ -4685,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="F211" t="n">
-        <v>0.505422327553309</v>
+        <v>0.682159818173044</v>
       </c>
     </row>
     <row r="212">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>10.73277245642</v>
+        <v>10.766351930714</v>
       </c>
     </row>
     <row r="213">
@@ -4725,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="F213" t="n">
-        <v>11.0062177641713</v>
+        <v>10.9726382898774</v>
       </c>
     </row>
     <row r="214">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>22.9114411190221</v>
+        <v>22.9137628845991</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>16.1216458512386</v>
+        <v>16.0965094177791</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-5.91107409524496</v>
+        <v>-5.0197063447879</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>1.87320568656944</v>
+        <v>2.03203968507796</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>7.44737776800118</v>
+        <v>7.69907820595045</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>8.8562634769898</v>
+        <v>8.84251387293261</v>
       </c>
     </row>
     <row r="220">
@@ -4865,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="F220" t="n">
-        <v>0.470678233576723</v>
+        <v>0.642414914942905</v>
       </c>
     </row>
     <row r="221">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>10.3389412404199</v>
+        <v>10.3726688517447</v>
       </c>
     </row>
     <row r="222">
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="n">
-        <v>9.387198421947</v>
+        <v>9.353472104137</v>
       </c>
     </row>
     <row r="223">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>22.2258920455233</v>
+        <v>22.2283318906912</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>16.2478531621784</v>
+        <v>16.1711478594462</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-7.28564999027313</v>
+        <v>-9.82769496705534</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>1.74710103696099</v>
+        <v>1.90553670105411</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>7.47871138343927</v>
+        <v>7.7269516214124</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>9.19721324718419</v>
+        <v>9.18359919154632</v>
       </c>
     </row>
     <row r="229">
@@ -5045,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="F229" t="n">
-        <v>0.456146544451988</v>
+        <v>0.623409614891812</v>
       </c>
     </row>
     <row r="230">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>10.2036891650472</v>
+        <v>10.2484964010472</v>
       </c>
     </row>
     <row r="231">
@@ -5085,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="F231" t="n">
-        <v>10.5024281459896</v>
+        <v>10.4576209099896</v>
       </c>
     </row>
     <row r="232">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>22.7024618934999</v>
+        <v>22.7052028066979</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>16.74959495273</v>
+        <v>16.6109634540737</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-6.23411737809884</v>
+        <v>-4.08498550064887</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>1.64440506682808</v>
+        <v>1.80273969490813</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>7.59474539955505</v>
+        <v>7.8425785514613</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>9.50628343467873</v>
+        <v>9.4951938114524</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="F238" t="n">
-        <v>0.423343067150124</v>
+        <v>0.586003496697688</v>
       </c>
     </row>
     <row r="239">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>10.5146219257242</v>
+        <v>10.5830040364906</v>
       </c>
     </row>
     <row r="240">
@@ -5265,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F240" t="n">
-        <v>10.287270338848</v>
+        <v>10.2396078619247</v>
       </c>
     </row>
     <row r="241">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>23.5539199021448</v>
+        <v>23.5367139874802</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>16.4374263790639</v>
+        <v>16.3216708817213</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-6.66747448369609</v>
+        <v>-8.12468277716692</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>1.54561959922471</v>
+        <v>1.71462479678994</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>7.54934819674372</v>
+        <v>7.78057455177357</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>9.60618454255894</v>
+        <v>9.60098139178226</v>
       </c>
     </row>
     <row r="247">
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>0.461967736157883</v>
+        <v>0.618681121567051</v>
       </c>
     </row>
     <row r="248">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>10.7223623106944</v>
+        <v>10.8156937822337</v>
       </c>
     </row>
     <row r="249">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>10.9026015237428</v>
+        <v>10.8515815041132</v>
       </c>
     </row>
     <row r="250">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>24.3053906857119</v>
+        <v>24.2670197589295</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>17.1909055915505</v>
+        <v>17.0782556360893</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-2.9298776132253</v>
+        <v>-4.43029780484367</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>1.45658967714845</v>
+        <v>1.62257332002841</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>7.43462569542842</v>
+        <v>7.68312751491682</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>8.84319032201577</v>
+        <v>8.84064331446407</v>
       </c>
     </row>
     <row r="256">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>0.39975386027603</v>
+        <v>0.552237775008811</v>
       </c>
     </row>
     <row r="257">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>10.833058215145</v>
+        <v>10.9255926616978</v>
       </c>
     </row>
     <row r="258">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>10.0540649353899</v>
+        <v>10.0025377365451</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>24.4225750745913</v>
+        <v>24.3873325651081</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>15.5352249203615</v>
+        <v>15.5018376103964</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>5.22165047328423</v>
+        <v>1.83130662972914</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>1.38095284416753</v>
+        <v>1.54818491554066</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>7.32423100387325</v>
+        <v>7.57914701870469</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>9.10123179032951</v>
+        <v>9.10015171258828</v>
       </c>
     </row>
     <row r="265">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>0.374435745138275</v>
+        <v>0.52510553351748</v>
       </c>
     </row>
     <row r="266">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>10.8176110343224</v>
+        <v>10.9935763557249</v>
       </c>
     </row>
     <row r="267">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>10.1695934982195</v>
+        <v>10.0348395402842</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>24.4722132332133</v>
+        <v>24.4388788576796</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>16.4696630565179</v>
+        <v>16.4737189246634</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>2.43688360675439</v>
+        <v>6.00192019751537</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>1.32927103511452</v>
+        <v>1.49525020523342</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>7.29668719158084</v>
+        <v>7.56828677760638</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>9.09372505764724</v>
+        <v>9.09420076154772</v>
       </c>
     </row>
     <row r="274">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>0.355380649624017</v>
+        <v>0.500518294200216</v>
       </c>
     </row>
     <row r="275">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>10.5890125222865</v>
+        <v>10.7583106378595</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>8.79959865443717</v>
+        <v>8.6669249502355</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>21.1561144662189</v>
+        <v>21.1218325180418</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>15.4614437372412</v>
+        <v>15.5239373231246</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-5.8434513483567</v>
+        <v>-0.949871096741739</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>1.27809357989029</v>
+        <v>1.44477743629703</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>7.32168276872346</v>
+        <v>7.60692771393649</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>9.86230084210617</v>
+        <v>9.80177345591479</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>0.331353372472533</v>
+        <v>0.467262093012376</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>10.8923285570888</v>
+        <v>11.1721059716811</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>8.90845753721285</v>
+        <v>8.6856284093507</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>21.9220396861733</v>
+        <v>21.9156308171964</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>16.8916929058371</v>
+        <v>17.0297372742912</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-11.0759637843145</v>
+        <v>-3.36174410723668</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>1.2299094395768</v>
+        <v>1.39418409172204</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>7.27688041054336</v>
+        <v>7.57343597247942</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>8.345867891042</v>
+        <v>8.32084459244487</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>0.310821946429199</v>
+        <v>0.435002989452221</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>10.618891944533</v>
+        <v>10.7403017021693</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>8.47637944593224</v>
+        <v>8.1731156622727</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>20.711985387769</v>
+        <v>20.7651453134046</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>15.9294815646872</v>
+        <v>16.1699076731555</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-4.47382934375796</v>
+        <v>-0.206472181997577</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>1.17370808829857</v>
+        <v>1.33739708451924</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>7.4769941569585</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>7.27825200049524</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.406890809073685</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>9.63284534376431</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>7.29174727158801</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>19.8415973058846</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>15.4724541573918</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>7.52998545980727</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>1.2951422576704</v>
       </c>
     </row>
   </sheetData>
